--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3529.236975684009</v>
+        <v>29520.23254409542</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4134348.797052462</v>
+        <v>4924821.989830326</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23290677.69920168</v>
+        <v>23086845.87770503</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4796704.058000253</v>
+        <v>4839201.305141539</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L11" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M11" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N11" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O11" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P11" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L12" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M12" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M13" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N13" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O13" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L14" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M14" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N14" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O14" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P14" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L15" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M15" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M16" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N16" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O16" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K17" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L17" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M17" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N17" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O17" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P17" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L18" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M18" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M19" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N19" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O19" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K20" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L20" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M20" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N20" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O20" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P20" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L21" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M21" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M22" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N22" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O22" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K23" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L23" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M23" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N23" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O23" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P23" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L24" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M24" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M25" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N25" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O25" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K26" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L26" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M26" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N26" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O26" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P26" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L27" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M27" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q27" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M28" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N28" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O28" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K29" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L29" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M29" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N29" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O29" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P29" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L30" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M30" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q30" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M31" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N31" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O31" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K32" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M32" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N32" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O32" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P32" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L33" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M33" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M34" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N34" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O34" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K35" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L35" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M35" t="n">
-        <v>78.8318885537511</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N35" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O35" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P35" t="n">
-        <v>116.5194153913582</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>68.68019772140312</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L36" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M36" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>45.801031517992</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q36" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>87.76745019286052</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M37" t="n">
-        <v>88.52321246794781</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N37" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O37" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K38" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L38" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M38" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N38" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O38" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P38" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L39" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M39" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q39" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M40" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N40" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O40" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K41" t="n">
-        <v>122.0365346358061</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L41" t="n">
-        <v>105.9222139730819</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M41" t="n">
-        <v>78.83188855375113</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N41" t="n">
-        <v>74.42176767202952</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O41" t="n">
-        <v>86.70771710415687</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P41" t="n">
-        <v>116.5194153913583</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>68.68019772140313</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L42" t="n">
-        <v>35.26465785350914</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M42" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>45.80103151799199</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q42" t="n">
-        <v>92.13336211952077</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>87.76745019286051</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M43" t="n">
-        <v>88.5232124679478</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N43" t="n">
-        <v>76.73531661208723</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O43" t="n">
-        <v>95.90977625558899</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K44" t="n">
-        <v>122.0365346358061</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L44" t="n">
-        <v>105.9222139730819</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M44" t="n">
-        <v>78.83188855375113</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N44" t="n">
-        <v>74.42176767202952</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>86.70771710415687</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P44" t="n">
-        <v>116.5194153913583</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,28 +11375,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K45" t="n">
-        <v>68.68019772140313</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L45" t="n">
-        <v>35.26465785350914</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>45.80103151799199</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.13336211952077</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>87.76745019286051</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M46" t="n">
-        <v>88.5232124679478</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N46" t="n">
-        <v>76.73531661208723</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O46" t="n">
-        <v>95.90977625558899</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I11" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J11" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S11" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T11" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U11" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H12" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I12" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J12" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S12" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T12" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H13" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I13" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J13" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K13" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R13" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S13" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T13" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H14" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I14" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J14" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S14" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T14" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U14" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H15" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I15" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J15" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S15" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T15" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H16" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I16" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J16" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K16" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R16" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S16" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T16" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H17" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I17" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J17" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S17" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T17" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U17" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H18" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I18" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J18" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S18" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T18" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H19" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I19" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J19" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K19" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R19" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S19" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T19" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H20" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I20" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J20" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S20" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T20" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U20" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H21" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I21" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J21" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S21" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T21" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H22" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I22" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J22" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K22" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R22" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S22" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T22" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H23" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I23" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J23" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S23" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T23" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U23" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H24" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I24" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J24" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S24" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T24" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H25" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I25" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J25" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K25" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R25" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S25" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T25" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H26" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I26" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J26" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S26" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T26" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U26" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H27" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I27" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J27" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S27" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T27" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H28" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I28" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J28" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K28" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R28" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S28" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T28" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H29" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I29" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J29" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S29" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T29" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U29" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H30" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I30" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J30" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S30" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T30" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H31" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I31" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J31" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K31" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R31" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S31" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T31" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H32" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I32" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J32" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S32" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T32" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U32" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H33" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I33" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J33" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S33" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T33" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H34" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I34" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J34" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K34" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R34" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S34" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T34" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H35" t="n">
-        <v>339.3940753414475</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I35" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J35" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.285509237068567</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S35" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T35" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U35" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H36" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I36" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J36" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S36" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T36" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H37" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I37" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J37" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K37" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R37" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S37" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T37" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H38" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I38" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J38" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S38" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T38" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U38" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H39" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I39" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J39" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S39" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T39" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H40" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I40" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J40" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K40" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25588,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R40" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S40" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T40" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.0934080885264</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H41" t="n">
-        <v>339.3940753414476</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I41" t="n">
-        <v>212.2972214058836</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J41" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>148.0982088582942</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S41" t="n">
-        <v>210.5456649893907</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T41" t="n">
-        <v>219.2056731633497</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U41" t="n">
-        <v>250.09096030272</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H42" t="n">
-        <v>121.887004794376</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I42" t="n">
-        <v>93.64366449363538</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J42" t="n">
-        <v>14.8271391275419</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>109.9788170619971</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S42" t="n">
-        <v>184.1891195141138</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T42" t="n">
-        <v>213.3647520849204</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H43" t="n">
-        <v>162.8541593486954</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I43" t="n">
-        <v>154.8063951475636</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J43" t="n">
-        <v>96.62044264882138</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K43" t="n">
-        <v>28.2164366317142</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>18.07363936789694</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.24268633557031</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R43" t="n">
-        <v>188.4086946307534</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S43" t="n">
-        <v>229.6160128400592</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T43" t="n">
-        <v>222.3341433135066</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.0934080885264</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H44" t="n">
-        <v>339.3940753414476</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I44" t="n">
-        <v>212.2972214058836</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J44" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>148.0982088582942</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S44" t="n">
-        <v>210.5456649893907</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T44" t="n">
-        <v>219.2056731633497</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U44" t="n">
-        <v>250.09096030272</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.3461201365529</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H45" t="n">
-        <v>121.887004794376</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I45" t="n">
-        <v>93.64366449363538</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J45" t="n">
-        <v>14.8271391275419</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>109.9788170619971</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S45" t="n">
-        <v>184.1891195141138</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T45" t="n">
-        <v>213.3647520849204</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.3666990440678</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H46" t="n">
-        <v>162.8541593486954</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I46" t="n">
-        <v>154.8063951475636</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J46" t="n">
-        <v>96.62044264882138</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K46" t="n">
-        <v>28.2164366317142</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>18.07363936789694</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.24268633557031</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R46" t="n">
-        <v>188.4086946307534</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S46" t="n">
-        <v>229.6160128400592</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T46" t="n">
-        <v>222.3341433135066</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433191.1504542941</v>
+        <v>437993.2584082664</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433191.1504542941</v>
+        <v>439429.2004363494</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563812</v>
       </c>
       <c r="F2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563811</v>
       </c>
       <c r="G2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563812</v>
       </c>
       <c r="H2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563814</v>
       </c>
       <c r="I2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563809</v>
       </c>
       <c r="J2" t="n">
-        <v>68851.80790756164</v>
+        <v>70467.37590563811</v>
       </c>
       <c r="K2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563808</v>
       </c>
       <c r="L2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563809</v>
       </c>
       <c r="M2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563809</v>
       </c>
       <c r="N2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563809</v>
       </c>
       <c r="O2" t="n">
-        <v>68851.80790756166</v>
+        <v>70467.37590563809</v>
       </c>
       <c r="P2" t="n">
-        <v>68851.80790756166</v>
+        <v>71463.74207838351</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>230120.0441040565</v>
+        <v>273106.1670582839</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>33441.98825016787</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="F4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="G4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="H4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="I4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="J4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="K4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="L4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="M4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="N4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="O4" t="n">
-        <v>20080.30300892413</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="P4" t="n">
-        <v>20080.30300892413</v>
+        <v>10646.74796604839</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="F5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="G5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="H5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="I5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="J5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="K5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="L5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="M5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="N5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="O5" t="n">
-        <v>6244.209893998943</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="P5" t="n">
-        <v>6244.209893998943</v>
+        <v>8505.965127173942</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-23050.59377275997</v>
       </c>
       <c r="E6" t="n">
-        <v>-187592.749099418</v>
+        <v>-225238.4142540564</v>
       </c>
       <c r="F6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422748</v>
       </c>
       <c r="G6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422749</v>
       </c>
       <c r="H6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422751</v>
       </c>
       <c r="I6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422746</v>
       </c>
       <c r="J6" t="n">
-        <v>42527.29500463856</v>
+        <v>47867.75280422748</v>
       </c>
       <c r="K6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422745</v>
       </c>
       <c r="L6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422746</v>
       </c>
       <c r="M6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422746</v>
       </c>
       <c r="N6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422746</v>
       </c>
       <c r="O6" t="n">
-        <v>42527.29500463857</v>
+        <v>47867.75280422746</v>
       </c>
       <c r="P6" t="n">
-        <v>42527.29500463857</v>
+        <v>18869.04073499331</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="F3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="G3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="H3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="I3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="J3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="K3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="L3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="M3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="N3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="O3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="P3" t="n">
-        <v>286.431646513713</v>
+        <v>390.181886567612</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>286.431646513713</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>50.24518349545036</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H11" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I11" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J11" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K11" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L11" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M11" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N11" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P11" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R11" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S11" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T11" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H12" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I12" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J12" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K12" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L12" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M12" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R12" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S12" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T12" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H13" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I13" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J13" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K13" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L13" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M13" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N13" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O13" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P13" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R13" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S13" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T13" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H14" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I14" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J14" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K14" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L14" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M14" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N14" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P14" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R14" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S14" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T14" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H15" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I15" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J15" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K15" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L15" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M15" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R15" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S15" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T15" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H16" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I16" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J16" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K16" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L16" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M16" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N16" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O16" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P16" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R16" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S16" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T16" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H17" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I17" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J17" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L17" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M17" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N17" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P17" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R17" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S17" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T17" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H18" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I18" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J18" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K18" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L18" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M18" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R18" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S18" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T18" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H19" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I19" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J19" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K19" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L19" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M19" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N19" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O19" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P19" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R19" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S19" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T19" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H20" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I20" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J20" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K20" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L20" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M20" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N20" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O20" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R20" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S20" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T20" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H21" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I21" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J21" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K21" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L21" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M21" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R21" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S21" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T21" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H22" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I22" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J22" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K22" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L22" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M22" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N22" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O22" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P22" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R22" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S22" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T22" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H23" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I23" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J23" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K23" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L23" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M23" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N23" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O23" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R23" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S23" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T23" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H24" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I24" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J24" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K24" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L24" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M24" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R24" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S24" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T24" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H25" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I25" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J25" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K25" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L25" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M25" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N25" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O25" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P25" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R25" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S25" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T25" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H26" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I26" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J26" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K26" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L26" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M26" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N26" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O26" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P26" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R26" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S26" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T26" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H27" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I27" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J27" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K27" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L27" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M27" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R27" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S27" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T27" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H28" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I28" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J28" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K28" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L28" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M28" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N28" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O28" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P28" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R28" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S28" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T28" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H29" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I29" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J29" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K29" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L29" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M29" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N29" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O29" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P29" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R29" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S29" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T29" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H30" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I30" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J30" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K30" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L30" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M30" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R30" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S30" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T30" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H31" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I31" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J31" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K31" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L31" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M31" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N31" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O31" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P31" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R31" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S31" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T31" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H32" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I32" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J32" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K32" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L32" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M32" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N32" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O32" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P32" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R32" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S32" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T32" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H33" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I33" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J33" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K33" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L33" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M33" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R33" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S33" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T33" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H34" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I34" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J34" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K34" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L34" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M34" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N34" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O34" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P34" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R34" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S34" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T34" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H35" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I35" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J35" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K35" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L35" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M35" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N35" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O35" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P35" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q35" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R35" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S35" t="n">
-        <v>26.23944178866829</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T35" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6160982585389299</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H36" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I36" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J36" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K36" t="n">
-        <v>99.48635782731483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L36" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M36" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R36" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S36" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T36" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H37" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I37" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J37" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K37" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L37" t="n">
-        <v>76.79185487025019</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M37" t="n">
-        <v>80.96624394813034</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N37" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O37" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P37" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R37" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S37" t="n">
-        <v>9.001466661750616</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T37" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H38" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I38" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J38" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K38" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L38" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M38" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N38" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q38" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R38" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S38" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T38" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H39" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I39" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J39" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K39" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L39" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M39" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R39" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S39" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T39" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H40" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I40" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J40" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K40" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L40" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M40" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N40" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O40" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P40" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R40" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S40" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T40" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.151484006085277</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H41" t="n">
-        <v>11.79263557732085</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I41" t="n">
-        <v>44.3925871446027</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J41" t="n">
-        <v>97.7307656614804</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K41" t="n">
-        <v>146.4730836390702</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L41" t="n">
-        <v>181.7128122903026</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M41" t="n">
-        <v>202.1905159835216</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N41" t="n">
-        <v>205.4621699158114</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O41" t="n">
-        <v>194.0121008303009</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5848394300706</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q41" t="n">
-        <v>124.3473184621416</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R41" t="n">
-        <v>72.33190719725437</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S41" t="n">
-        <v>26.23944178866828</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T41" t="n">
-        <v>5.040621236638304</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H42" t="n">
-        <v>5.950212128520717</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I42" t="n">
-        <v>21.21215495408158</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J42" t="n">
-        <v>58.20777450520653</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K42" t="n">
-        <v>99.48635782731482</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L42" t="n">
-        <v>133.7716854779374</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>117.6477455274909</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.6444022654255</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R42" t="n">
-        <v>38.25213573630304</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S42" t="n">
-        <v>11.44375493382617</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T42" t="n">
-        <v>2.483308331567001</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H43" t="n">
-        <v>4.59229754574445</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I43" t="n">
-        <v>15.53304732241578</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J43" t="n">
-        <v>36.51768713011714</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K43" t="n">
-        <v>60.00977774500411</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L43" t="n">
-        <v>76.79185487025021</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M43" t="n">
-        <v>80.96624394813036</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N43" t="n">
-        <v>79.04104763549726</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O43" t="n">
-        <v>73.00720065565919</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P43" t="n">
-        <v>62.47027254456452</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.25117862357066</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R43" t="n">
-        <v>23.22444137142334</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S43" t="n">
-        <v>9.001466661750614</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T43" t="n">
-        <v>2.206932358384345</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.151484006085277</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H44" t="n">
-        <v>11.79263557732085</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I44" t="n">
-        <v>44.3925871446027</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J44" t="n">
-        <v>97.7307656614804</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K44" t="n">
-        <v>146.4730836390702</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L44" t="n">
-        <v>181.7128122903026</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M44" t="n">
-        <v>202.1905159835216</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N44" t="n">
-        <v>205.4621699158114</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>194.0121008303009</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P44" t="n">
-        <v>165.5848394300706</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q44" t="n">
-        <v>124.3473184621416</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R44" t="n">
-        <v>72.33190719725437</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S44" t="n">
-        <v>26.23944178866828</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T44" t="n">
-        <v>5.040621236638304</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H45" t="n">
-        <v>5.950212128520717</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I45" t="n">
-        <v>21.21215495408158</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J45" t="n">
-        <v>58.20777450520653</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K45" t="n">
-        <v>99.48635782731482</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L45" t="n">
-        <v>133.7716854779374</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>117.6477455274909</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.6444022654255</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R45" t="n">
-        <v>38.25213573630304</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S45" t="n">
-        <v>11.44375493382617</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T45" t="n">
-        <v>2.483308331567001</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H46" t="n">
-        <v>4.59229754574445</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I46" t="n">
-        <v>15.53304732241578</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J46" t="n">
-        <v>36.51768713011714</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K46" t="n">
-        <v>60.00977774500411</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L46" t="n">
-        <v>76.79185487025021</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M46" t="n">
-        <v>80.96624394813036</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N46" t="n">
-        <v>79.04104763549726</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O46" t="n">
-        <v>73.00720065565919</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P46" t="n">
-        <v>62.47027254456452</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.25117862357066</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R46" t="n">
-        <v>23.22444137142334</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S46" t="n">
-        <v>9.001466661750614</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T46" t="n">
-        <v>2.206932358384345</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29520.23254409542</v>
+        <v>-101726.3670531817</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4924821.989830326</v>
+        <v>5134031.891691857</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23086845.87770503</v>
+        <v>23046157.73356812</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4839201.305141539</v>
+        <v>4844960.867480531</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K11" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L11" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M11" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N11" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O11" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P11" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L12" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M13" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N13" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O13" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K14" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L14" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M14" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N14" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O14" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P14" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L15" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M16" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N16" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O16" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K17" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L17" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M17" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N17" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O17" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P17" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q17" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9245,10 +9245,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L18" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M19" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N19" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O19" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K20" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L20" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M20" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N20" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O20" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P20" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,10 +9482,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L21" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M22" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N22" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O22" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K23" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L23" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M23" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N23" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O23" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P23" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9719,10 +9719,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L24" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M25" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N25" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O25" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K26" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L26" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M26" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N26" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O26" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P26" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9956,10 +9956,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L27" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M28" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N28" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O28" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K29" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L29" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M29" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N29" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O29" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P29" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10193,10 +10193,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L30" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M31" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N31" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O31" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>104.889258789408</v>
+        <v>98.2504936139085</v>
       </c>
       <c r="K32" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601336</v>
       </c>
       <c r="L32" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M32" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N32" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O32" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P32" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706382</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10430,10 +10430,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046026</v>
       </c>
       <c r="L33" t="n">
-        <v>10.27628214666007</v>
+        <v>1.189288905504782</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M34" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N34" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O34" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K35" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M35" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N35" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O35" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P35" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10667,10 +10667,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L36" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M37" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N37" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O37" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K38" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L38" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M38" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N38" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O38" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P38" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q38" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10904,10 +10904,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L39" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M40" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N40" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O40" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>104.889258789408</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K41" t="n">
-        <v>94.6755543817487</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L41" t="n">
-        <v>71.97849854454961</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M41" t="n">
-        <v>41.06296488573622</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N41" t="n">
-        <v>36.04170333287215</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O41" t="n">
-        <v>50.4665106791827</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P41" t="n">
-        <v>85.5883841775869</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.6377068975464</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,10 +11141,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>50.09627633166345</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L42" t="n">
-        <v>10.27628214666007</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>23.82458668363594</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.442690741435</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>73.42283224274789</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M43" t="n">
-        <v>73.3988241034014</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N43" t="n">
-        <v>61.97055239817956</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O43" t="n">
-        <v>82.27212675770768</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>87.74555168308848</v>
+        <v>98.25049361390852</v>
       </c>
       <c r="K44" t="n">
-        <v>68.98158147698734</v>
+        <v>84.72576630601338</v>
       </c>
       <c r="L44" t="n">
-        <v>40.1028531396922</v>
+        <v>59.63490661615438</v>
       </c>
       <c r="M44" t="n">
-        <v>5.595167593493045</v>
+        <v>27.32834050985531</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>22.08483837548175</v>
       </c>
       <c r="O44" t="n">
-        <v>16.43335224433224</v>
+        <v>37.28743887001394</v>
       </c>
       <c r="P44" t="n">
-        <v>56.54187083839042</v>
+        <v>74.34035129706385</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.8249850515391</v>
+        <v>115.1909026400967</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>75.45031945264532</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>32.64460726796537</v>
+        <v>43.33825532046028</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.18928890550481</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1870885796273</v>
+        <v>15.83287853832906</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.64706979377851</v>
+        <v>72.10044548761049</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>59.95218091677093</v>
+        <v>68.20642890830067</v>
       </c>
       <c r="M46" t="n">
-        <v>59.1959110048432</v>
+        <v>67.89885818094368</v>
       </c>
       <c r="N46" t="n">
-        <v>48.1053528280334</v>
+        <v>56.6013633723296</v>
       </c>
       <c r="O46" t="n">
-        <v>69.46537080709682</v>
+        <v>77.31281166390887</v>
       </c>
       <c r="P46" t="n">
-        <v>82.93013512200093</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23272,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H11" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I11" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S11" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T11" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H12" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I12" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J12" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S12" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T12" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H13" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I13" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J13" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K13" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R13" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S13" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T13" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H14" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I14" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S14" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H15" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I15" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J15" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S15" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T15" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H16" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I16" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J16" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K16" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R16" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S16" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T16" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H17" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I17" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S17" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H18" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I18" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J18" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S18" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T18" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H19" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I19" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J19" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K19" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R19" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S19" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T19" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H20" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I20" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S20" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H21" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I21" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J21" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S21" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T21" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H22" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I22" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J22" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K22" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R22" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S22" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T22" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H23" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I23" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S23" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T23" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H24" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I24" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J24" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S24" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T24" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H25" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I25" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J25" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K25" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R25" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S25" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T25" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H26" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I26" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S26" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T26" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H27" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I27" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J27" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S27" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H28" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I28" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J28" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K28" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R28" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S28" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T28" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H29" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I29" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S29" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T29" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H30" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I30" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J30" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S30" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H31" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I31" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K31" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R31" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S31" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T31" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H32" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I32" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S32" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T32" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H33" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I33" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J33" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S33" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H34" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I34" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J34" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K34" t="n">
-        <v>17.00668871668184</v>
+        <v>12.93027715900568</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R34" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S34" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T34" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H35" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I35" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S35" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T35" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H36" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I36" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J36" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S36" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T36" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H37" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I37" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J37" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K37" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R37" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S37" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T37" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H38" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I38" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S38" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T38" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H39" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I39" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J39" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S39" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T39" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H40" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I40" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J40" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K40" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R40" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S40" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T40" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.8783123837688</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H41" t="n">
-        <v>337.191226455099</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I41" t="n">
-        <v>204.0047442482169</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.5867032943157</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S41" t="n">
-        <v>205.6441716172273</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T41" t="n">
-        <v>218.2640917157734</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H42" t="n">
-        <v>120.7755129590769</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I42" t="n">
-        <v>89.68126172020311</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J42" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.8333681880216</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S42" t="n">
-        <v>182.0514410751984</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T42" t="n">
-        <v>212.9008733398524</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9963241796108</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I43" t="n">
-        <v>151.9048422443612</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J43" t="n">
-        <v>89.79898650365654</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K43" t="n">
-        <v>17.00668871668184</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.404274245706759</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.16342279524457</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R43" t="n">
-        <v>184.0703993891455</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S43" t="n">
-        <v>227.9345506528043</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T43" t="n">
-        <v>221.9218912383841</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6763216963499</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1225893275702</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I44" t="n">
-        <v>196.2174982714999</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8984057757385</v>
+        <v>129.6732602927343</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0413088276692</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3798774815972</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H45" t="n">
-        <v>119.7317403736337</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I45" t="n">
-        <v>85.96027407454947</v>
+        <v>88.2403386428762</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>96.12326613555375</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S45" t="n">
-        <v>180.0440037912057</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T45" t="n">
-        <v>212.4652570791701</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1796084472493</v>
+        <v>168.2351280313919</v>
       </c>
       <c r="H46" t="n">
-        <v>161.1907538606181</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I46" t="n">
-        <v>149.1800706541489</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J46" t="n">
-        <v>83.39313745375298</v>
+        <v>87.31837205263562</v>
       </c>
       <c r="K46" t="n">
-        <v>6.479910928618636</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.57640008743158</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R46" t="n">
-        <v>179.9964210683504</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S46" t="n">
-        <v>226.3555339845949</v>
+        <v>227.3230889191529</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5347562180094</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6311580469787</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437993.2584082664</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>439429.2004363494</v>
+        <v>438752.5947717118</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>70467.37590563812</v>
+        <v>70889.4742878417</v>
       </c>
       <c r="F2" t="n">
-        <v>70467.37590563811</v>
+        <v>70889.4742878417</v>
       </c>
       <c r="G2" t="n">
-        <v>70467.37590563812</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="H2" t="n">
-        <v>70467.37590563814</v>
+        <v>70889.47428784173</v>
       </c>
       <c r="I2" t="n">
-        <v>70467.37590563809</v>
+        <v>70889.47428784173</v>
       </c>
       <c r="J2" t="n">
-        <v>70467.37590563811</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="K2" t="n">
-        <v>70467.37590563808</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="L2" t="n">
-        <v>70467.37590563809</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="M2" t="n">
-        <v>70467.37590563809</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="N2" t="n">
-        <v>70467.37590563809</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="O2" t="n">
-        <v>70467.37590563809</v>
+        <v>70889.47428784172</v>
       </c>
       <c r="P2" t="n">
-        <v>71463.74207838351</v>
+        <v>70889.47428784172</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273106.1670582839</v>
+        <v>288738.0197777653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33441.98825016787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="F4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="G4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="H4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="I4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="J4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="K4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="L4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="M4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="N4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="O4" t="n">
-        <v>15189.00297443751</v>
+        <v>13415.74904466153</v>
       </c>
       <c r="P4" t="n">
-        <v>10646.74796604839</v>
+        <v>13415.74904466153</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="F5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="G5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="H5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="I5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="J5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="K5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="L5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="M5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="N5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="O5" t="n">
-        <v>7410.620126973125</v>
+        <v>7834.783827238988</v>
       </c>
       <c r="P5" t="n">
-        <v>8505.965127173942</v>
+        <v>7834.783827238988</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23050.59377275997</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="C6" t="n">
-        <v>-23050.59377275997</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="D6" t="n">
-        <v>-23050.59377275997</v>
+        <v>-39855.05438060337</v>
       </c>
       <c r="E6" t="n">
-        <v>-225238.4142540564</v>
+        <v>-254103.0946545033</v>
       </c>
       <c r="F6" t="n">
-        <v>47867.75280422748</v>
+        <v>34634.92512326196</v>
       </c>
       <c r="G6" t="n">
-        <v>47867.75280422749</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="H6" t="n">
-        <v>47867.75280422751</v>
+        <v>34634.92512326199</v>
       </c>
       <c r="I6" t="n">
-        <v>47867.75280422746</v>
+        <v>34634.92512326199</v>
       </c>
       <c r="J6" t="n">
-        <v>47867.75280422748</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="K6" t="n">
-        <v>47867.75280422745</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="L6" t="n">
-        <v>47867.75280422746</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="M6" t="n">
-        <v>47867.75280422746</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="N6" t="n">
-        <v>47867.75280422746</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="O6" t="n">
-        <v>47867.75280422746</v>
+        <v>34634.92512326198</v>
       </c>
       <c r="P6" t="n">
-        <v>18869.04073499331</v>
+        <v>34634.92512326198</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="F3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="G3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="H3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="I3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="J3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="K3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="N3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="O3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="P3" t="n">
-        <v>390.181886567612</v>
+        <v>359.3937535430728</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>339.9367030721617</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>50.24518349545036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H11" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I11" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J11" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K11" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L11" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M11" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N11" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O11" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P11" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R11" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S11" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T11" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H12" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I12" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J12" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L12" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31858,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R12" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S12" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T12" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H13" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I13" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J13" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K13" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L13" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M13" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N13" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O13" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P13" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R13" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S13" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T13" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H14" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I14" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J14" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L14" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M14" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N14" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O14" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P14" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R14" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S14" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T14" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H15" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I15" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J15" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K15" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L15" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32095,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R15" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S15" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T15" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H16" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I16" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J16" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K16" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L16" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M16" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N16" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P16" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R16" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T16" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H17" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I17" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J17" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L17" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M17" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N17" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O17" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P17" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R17" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T17" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H18" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I18" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J18" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K18" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L18" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32332,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R18" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S18" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T18" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H19" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I19" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J19" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K19" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L19" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M19" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N19" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P19" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R19" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T19" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H20" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I20" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J20" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K20" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L20" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M20" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N20" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O20" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P20" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R20" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T20" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H21" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I21" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J21" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K21" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L21" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32569,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R21" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S21" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T21" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H22" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I22" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J22" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K22" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L22" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M22" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N22" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O22" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P22" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R22" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S22" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T22" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H23" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I23" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J23" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K23" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L23" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M23" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N23" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O23" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P23" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R23" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S23" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T23" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H24" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I24" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J24" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L24" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32806,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R24" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S24" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T24" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H25" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I25" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J25" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K25" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L25" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M25" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N25" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O25" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P25" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R25" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S25" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T25" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H26" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I26" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J26" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K26" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L26" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M26" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N26" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O26" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P26" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R26" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S26" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T26" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H27" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I27" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J27" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K27" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L27" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33043,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R27" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S27" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T27" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H28" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I28" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J28" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K28" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L28" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M28" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N28" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O28" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P28" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R28" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S28" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T28" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H29" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I29" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J29" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K29" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L29" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M29" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N29" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O29" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P29" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R29" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T29" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H30" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I30" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J30" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K30" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L30" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33280,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R30" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S30" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T30" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H31" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I31" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J31" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K31" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L31" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M31" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N31" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O31" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P31" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R31" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S31" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T31" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H32" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I32" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J32" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L32" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M32" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N32" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O32" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P32" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R32" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S32" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T32" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H33" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791005</v>
       </c>
       <c r="I33" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J33" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K33" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L33" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33517,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R33" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S33" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T33" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076263</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345373</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H34" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I34" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J34" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K34" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771262</v>
       </c>
       <c r="L34" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M34" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N34" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O34" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P34" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.33044216389641</v>
+        <v>54.268456785004</v>
       </c>
       <c r="R34" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137767</v>
       </c>
       <c r="S34" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T34" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H35" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I35" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J35" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K35" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L35" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M35" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N35" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O35" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P35" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R35" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S35" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T35" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H36" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I36" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J36" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K36" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L36" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33754,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R36" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S36" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T36" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H37" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I37" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J37" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K37" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L37" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M37" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N37" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O37" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P37" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R37" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S37" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T37" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H38" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I38" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J38" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K38" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L38" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M38" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N38" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O38" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P38" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R38" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S38" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T38" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H39" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I39" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J39" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L39" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33991,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R39" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S39" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T39" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H40" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I40" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J40" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K40" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L40" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M40" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N40" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O40" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P40" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R40" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S40" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T40" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.36657971084286</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H41" t="n">
-        <v>13.99548446366944</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I41" t="n">
-        <v>52.68506430226941</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J41" t="n">
-        <v>115.9867447331493</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K41" t="n">
-        <v>173.8340638931276</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L41" t="n">
-        <v>215.6565277188348</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M41" t="n">
-        <v>239.9594396515365</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N41" t="n">
-        <v>243.8422342549688</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O41" t="n">
-        <v>230.2533072552751</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P41" t="n">
-        <v>196.515870643842</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.575234749282</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R41" t="n">
-        <v>85.84341276123287</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S41" t="n">
-        <v>31.1409351608317</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T41" t="n">
-        <v>5.982202684214623</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H42" t="n">
-        <v>7.061703963819812</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I42" t="n">
-        <v>25.17455772751386</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J42" t="n">
-        <v>69.08091057431542</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K42" t="n">
-        <v>118.0702792170545</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L42" t="n">
-        <v>158.7600611847865</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34228,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>139.624190361847</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.33507364351127</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R42" t="n">
-        <v>45.39758461027851</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S42" t="n">
-        <v>13.58143337274154</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T42" t="n">
-        <v>2.947187076635061</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H43" t="n">
-        <v>5.450132714829087</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I43" t="n">
-        <v>18.43460022561821</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J43" t="n">
-        <v>43.33914327528198</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K43" t="n">
-        <v>71.21952566003647</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L43" t="n">
-        <v>91.13647282036283</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M43" t="n">
-        <v>96.09063231267676</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N43" t="n">
-        <v>93.80581184940493</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O43" t="n">
-        <v>86.6448501535405</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P43" t="n">
-        <v>74.13963766675469</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.33044216389641</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R43" t="n">
-        <v>27.56273661303133</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S43" t="n">
-        <v>10.68292884900547</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T43" t="n">
-        <v>2.619184433506819</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.568570398261756</v>
+        <v>1.444799009218382</v>
       </c>
       <c r="H44" t="n">
-        <v>16.06412159119821</v>
+        <v>14.79654785315776</v>
       </c>
       <c r="I44" t="n">
-        <v>60.47231027898639</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J44" t="n">
-        <v>133.1304518394688</v>
+        <v>122.6255099086488</v>
       </c>
       <c r="K44" t="n">
-        <v>199.5280367978889</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L44" t="n">
-        <v>247.5321731236922</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M44" t="n">
-        <v>275.4272369437797</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>257.7990992123592</v>
       </c>
       <c r="O44" t="n">
-        <v>264.2864656901256</v>
+        <v>243.4323790644439</v>
       </c>
       <c r="P44" t="n">
-        <v>225.5623839830384</v>
+        <v>207.763903524365</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3879565952893</v>
+        <v>156.0220390067317</v>
       </c>
       <c r="R44" t="n">
-        <v>98.5317102798101</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S44" t="n">
-        <v>35.74379795038979</v>
+        <v>32.92335742256392</v>
       </c>
       <c r="T44" t="n">
-        <v>6.866416918390839</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H45" t="n">
-        <v>8.105476549263036</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I45" t="n">
-        <v>28.8955453731675</v>
+        <v>26.61548080484078</v>
       </c>
       <c r="J45" t="n">
-        <v>79.29158508068804</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5219482807526</v>
+        <v>124.8283002282577</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>167.8470544259417</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>160.2616884658556</v>
+        <v>147.6158985071538</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.1306945911678</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R45" t="n">
-        <v>52.10768666274639</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S45" t="n">
-        <v>15.5888706567343</v>
+        <v>14.35879760617842</v>
       </c>
       <c r="T45" t="n">
-        <v>3.382803337317314</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H46" t="n">
-        <v>6.255703033821718</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I46" t="n">
-        <v>21.1593718158305</v>
+        <v>19.48974650361451</v>
       </c>
       <c r="J46" t="n">
-        <v>49.74499232518554</v>
+        <v>45.8197577263029</v>
       </c>
       <c r="K46" t="n">
-        <v>81.74630344809967</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L46" t="n">
-        <v>104.6071241463398</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M46" t="n">
-        <v>110.293545411235</v>
+        <v>101.5905982351345</v>
       </c>
       <c r="N46" t="n">
-        <v>107.6710114195511</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45160610415137</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P46" t="n">
-        <v>85.09802981795914</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.91746487170941</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63671493382637</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S46" t="n">
-        <v>12.26194551721495</v>
+        <v>11.29439058265689</v>
       </c>
       <c r="T46" t="n">
-        <v>3.006319453881599</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03535020526653179</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
